--- a/data_year/zb/运输和邮电/企业信息化及电子商务情况/按行业分电子商务采购额.xlsx
+++ b/data_year/zb/运输和邮电/企业信息化及电子商务情况/按行业分电子商务采购额.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R9"/>
+  <dimension ref="A1:R10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,87 +436,87 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>交通运输、仓储和邮政业电子商务采购额</t>
+          <t>交通运输、仓储和邮政业企业电子商务采购额</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>住宿和餐饮业电子商务采购额</t>
+          <t>企业电子商务采购额</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>信息传输、软件和信息技术服务业电子商务采购额</t>
+          <t>住宿和餐饮业企业电子商务采购额</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>制造业电子商务采购额</t>
+          <t>信息传输、软件和信息技术服务业企业电子商务采购额</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>卫生和社会工作电子商务采购额</t>
+          <t>制造业企业电子商务采购额</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>居民服务、修理和其他服务业电子商务采购额</t>
+          <t>卫生和社会工作企业电子商务采购额</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>建筑业电子商务采购额</t>
+          <t>居民服务、修理和其他服务业企业电子商务采购额</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>房地产业电子商务采购额</t>
+          <t>建筑业企业电子商务采购额</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>批发和零售业电子商务采购额</t>
+          <t>房地产业企业电子商务采购额</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>教育电子商务采购额</t>
+          <t>批发和零售业企业电子商务采购额</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>文化、体育和娱乐业电子商务采购额</t>
+          <t>教育企业电子商务采购额</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>水利、环境和公共设施管理业电子商务采购额</t>
+          <t>文化、体育和娱乐业企业电子商务采购额</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>电力、热力、燃气及水生产和供应业电子商务采购额</t>
+          <t>水利、环境和公共设施管理业企业电子商务采购额</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>电子商务采购额</t>
+          <t>电力、热力、燃气及水生产和供应业企业电子商务采购额</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>科学研究和技术服务业电子商务采购额</t>
+          <t>科学研究和技术服务业企业电子商务采购额</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>租赁和商务服务业电子商务采购额</t>
+          <t>租赁和商务服务业企业电子商务采购额</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>采矿业电子商务采购额</t>
+          <t>采矿业企业电子商务采购额</t>
         </is>
       </c>
     </row>
@@ -530,43 +530,43 @@
         <v>95.97963</v>
       </c>
       <c r="C2" t="n">
+        <v>34662.88323</v>
+      </c>
+      <c r="D2" t="n">
         <v>8.616770000000001</v>
       </c>
-      <c r="D2" t="n">
+      <c r="E2" t="n">
         <v>459.52737</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>20521.70536</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>4.14017</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>5.85793</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>735.05171</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>5.96134</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
         <v>8968.623030000001</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>0.19335</v>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>8.113099999999999</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>0.3407</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>2640.26301</v>
-      </c>
-      <c r="O2" t="n">
-        <v>34662.88323</v>
       </c>
       <c r="P2" t="n">
         <v>108.36657</v>
@@ -588,43 +588,43 @@
         <v>226.04515</v>
       </c>
       <c r="C3" t="n">
+        <v>48681.57427</v>
+      </c>
+      <c r="D3" t="n">
         <v>20.99517</v>
       </c>
-      <c r="D3" t="n">
+      <c r="E3" t="n">
         <v>898.51098</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>24455.58326</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
         <v>7.80496</v>
       </c>
-      <c r="G3" t="n">
+      <c r="H3" t="n">
         <v>2.6595</v>
       </c>
-      <c r="H3" t="n">
+      <c r="I3" t="n">
         <v>1521.43644</v>
       </c>
-      <c r="I3" t="n">
+      <c r="J3" t="n">
         <v>57.08523</v>
       </c>
-      <c r="J3" t="n">
+      <c r="K3" t="n">
         <v>15794.9768</v>
       </c>
-      <c r="K3" t="n">
+      <c r="L3" t="n">
         <v>0.38956</v>
       </c>
-      <c r="L3" t="n">
+      <c r="M3" t="n">
         <v>14.03876</v>
       </c>
-      <c r="M3" t="n">
+      <c r="N3" t="n">
         <v>2.67924</v>
       </c>
-      <c r="N3" t="n">
+      <c r="O3" t="n">
         <v>4303.51368</v>
-      </c>
-      <c r="O3" t="n">
-        <v>48681.57427</v>
       </c>
       <c r="P3" t="n">
         <v>143.83999</v>
@@ -646,43 +646,43 @@
         <v>292.6205</v>
       </c>
       <c r="C4" t="n">
+        <v>53499.1197</v>
+      </c>
+      <c r="D4" t="n">
         <v>35.7586</v>
       </c>
-      <c r="D4" t="n">
+      <c r="E4" t="n">
         <v>866.0448</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>23805.8887</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>14.2666</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>5.3042</v>
       </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
         <v>2172.2325</v>
       </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
         <v>51.532</v>
       </c>
-      <c r="J4" t="n">
+      <c r="K4" t="n">
         <v>19396.7312</v>
       </c>
-      <c r="K4" t="n">
+      <c r="L4" t="n">
         <v>1.1093</v>
       </c>
-      <c r="L4" t="n">
+      <c r="M4" t="n">
         <v>5.7275</v>
       </c>
-      <c r="M4" t="n">
+      <c r="N4" t="n">
         <v>10.7557</v>
       </c>
-      <c r="N4" t="n">
+      <c r="O4" t="n">
         <v>5124.1264</v>
-      </c>
-      <c r="O4" t="n">
-        <v>53499.1197</v>
       </c>
       <c r="P4" t="n">
         <v>214.4686</v>
@@ -704,43 +704,43 @@
         <v>220.584</v>
       </c>
       <c r="C5" t="n">
+        <v>63347.2438</v>
+      </c>
+      <c r="D5" t="n">
         <v>27.606</v>
       </c>
-      <c r="D5" t="n">
+      <c r="E5" t="n">
         <v>1487.4113</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>27691.0619</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
         <v>14.2704</v>
       </c>
-      <c r="G5" t="n">
+      <c r="H5" t="n">
         <v>11.1273</v>
       </c>
-      <c r="H5" t="n">
+      <c r="I5" t="n">
         <v>3467.0197</v>
       </c>
-      <c r="I5" t="n">
+      <c r="J5" t="n">
         <v>27.4391</v>
       </c>
-      <c r="J5" t="n">
+      <c r="K5" t="n">
         <v>22293.3429</v>
       </c>
-      <c r="K5" t="n">
+      <c r="L5" t="n">
         <v>1.2123</v>
       </c>
-      <c r="L5" t="n">
+      <c r="M5" t="n">
         <v>7.0072</v>
       </c>
-      <c r="M5" t="n">
+      <c r="N5" t="n">
         <v>12.3371</v>
       </c>
-      <c r="N5" t="n">
+      <c r="O5" t="n">
         <v>5529.5117</v>
-      </c>
-      <c r="O5" t="n">
-        <v>63347.2438</v>
       </c>
       <c r="P5" t="n">
         <v>246.823</v>
@@ -762,43 +762,43 @@
         <v>324.8001</v>
       </c>
       <c r="C6" t="n">
+        <v>74365.1217</v>
+      </c>
+      <c r="D6" t="n">
         <v>25.8348</v>
       </c>
-      <c r="D6" t="n">
+      <c r="E6" t="n">
         <v>2690.1754</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>30767.2185</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
         <v>9.5281</v>
       </c>
-      <c r="G6" t="n">
+      <c r="H6" t="n">
         <v>9.0527</v>
       </c>
-      <c r="H6" t="n">
+      <c r="I6" t="n">
         <v>4370.0134</v>
       </c>
-      <c r="I6" t="n">
+      <c r="J6" t="n">
         <v>44.1825</v>
       </c>
-      <c r="J6" t="n">
+      <c r="K6" t="n">
         <v>26855.533</v>
       </c>
-      <c r="K6" t="n">
+      <c r="L6" t="n">
         <v>2.5852</v>
       </c>
-      <c r="L6" t="n">
+      <c r="M6" t="n">
         <v>11.8603</v>
       </c>
-      <c r="M6" t="n">
+      <c r="N6" t="n">
         <v>4.5854</v>
       </c>
-      <c r="N6" t="n">
+      <c r="O6" t="n">
         <v>4809.3282</v>
-      </c>
-      <c r="O6" t="n">
-        <v>74365.1217</v>
       </c>
       <c r="P6" t="n">
         <v>233.0969</v>
@@ -820,43 +820,43 @@
         <v>364.8988165</v>
       </c>
       <c r="C7" t="n">
+        <v>85597.7763</v>
+      </c>
+      <c r="D7" t="n">
         <v>26.4360475</v>
       </c>
-      <c r="D7" t="n">
+      <c r="E7" t="n">
         <v>2540.657418</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>37842.6979292</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
         <v>25.284901</v>
       </c>
-      <c r="G7" t="n">
+      <c r="H7" t="n">
         <v>9.820549700000001</v>
       </c>
-      <c r="H7" t="n">
+      <c r="I7" t="n">
         <v>5440.7795706</v>
       </c>
-      <c r="I7" t="n">
+      <c r="J7" t="n">
         <v>44.6781791</v>
       </c>
-      <c r="J7" t="n">
+      <c r="K7" t="n">
         <v>33508.0634278</v>
       </c>
-      <c r="K7" t="n">
+      <c r="L7" t="n">
         <v>3.1667604</v>
       </c>
-      <c r="L7" t="n">
+      <c r="M7" t="n">
         <v>27.2594493</v>
       </c>
-      <c r="M7" t="n">
+      <c r="N7" t="n">
         <v>3.8723083</v>
       </c>
-      <c r="N7" t="n">
+      <c r="O7" t="n">
         <v>2691.5406587</v>
-      </c>
-      <c r="O7" t="n">
-        <v>85597.7763</v>
       </c>
       <c r="P7" t="n">
         <v>510.5308494</v>
@@ -878,43 +878,43 @@
         <v>711.0617999999999</v>
       </c>
       <c r="C8" t="n">
+        <v>101275.083908</v>
+      </c>
+      <c r="D8" t="n">
         <v>48.773265</v>
       </c>
-      <c r="D8" t="n">
+      <c r="E8" t="n">
         <v>1756.613243</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>41302.298319</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
         <v>27.295315</v>
       </c>
-      <c r="G8" t="n">
+      <c r="H8" t="n">
         <v>12.577907</v>
       </c>
-      <c r="H8" t="n">
+      <c r="I8" t="n">
         <v>7673.325816</v>
       </c>
-      <c r="I8" t="n">
+      <c r="J8" t="n">
         <v>39.381039</v>
       </c>
-      <c r="J8" t="n">
+      <c r="K8" t="n">
         <v>42730.235293</v>
       </c>
-      <c r="K8" t="n">
+      <c r="L8" t="n">
         <v>7.727745</v>
       </c>
-      <c r="L8" t="n">
+      <c r="M8" t="n">
         <v>20.773471</v>
       </c>
-      <c r="M8" t="n">
+      <c r="N8" t="n">
         <v>9.660831999999999</v>
       </c>
-      <c r="N8" t="n">
+      <c r="O8" t="n">
         <v>3693.42816</v>
-      </c>
-      <c r="O8" t="n">
-        <v>101275.083908</v>
       </c>
       <c r="P8" t="n">
         <v>613.9788600000001</v>
@@ -936,43 +936,43 @@
         <v>779.3153129999999</v>
       </c>
       <c r="C9" t="n">
+        <v>109133.419394</v>
+      </c>
+      <c r="D9" t="n">
         <v>60.625688</v>
       </c>
-      <c r="D9" t="n">
+      <c r="E9" t="n">
         <v>1973.642358</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>42231.942535</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
         <v>26.993623</v>
       </c>
-      <c r="G9" t="n">
+      <c r="H9" t="n">
         <v>16.218296</v>
       </c>
-      <c r="H9" t="n">
+      <c r="I9" t="n">
         <v>8948.560973</v>
       </c>
-      <c r="I9" t="n">
+      <c r="J9" t="n">
         <v>44.749799</v>
       </c>
-      <c r="J9" t="n">
+      <c r="K9" t="n">
         <v>49082.470691</v>
       </c>
-      <c r="K9" t="n">
+      <c r="L9" t="n">
         <v>15.452377</v>
       </c>
-      <c r="L9" t="n">
+      <c r="M9" t="n">
         <v>26.784688</v>
       </c>
-      <c r="M9" t="n">
+      <c r="N9" t="n">
         <v>8.226038000000001</v>
       </c>
-      <c r="N9" t="n">
+      <c r="O9" t="n">
         <v>2345.33135</v>
-      </c>
-      <c r="O9" t="n">
-        <v>109133.419394</v>
       </c>
       <c r="P9" t="n">
         <v>1058.434821</v>
@@ -982,6 +982,64 @@
       </c>
       <c r="R9" t="n">
         <v>708.0300570000001</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>2021年</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>2120.94438</v>
+      </c>
+      <c r="C10" t="n">
+        <v>125987.19135</v>
+      </c>
+      <c r="D10" t="n">
+        <v>68.08354</v>
+      </c>
+      <c r="E10" t="n">
+        <v>2903.3832</v>
+      </c>
+      <c r="F10" t="n">
+        <v>45330.72594</v>
+      </c>
+      <c r="G10" t="n">
+        <v>31.26595</v>
+      </c>
+      <c r="H10" t="n">
+        <v>16.27169</v>
+      </c>
+      <c r="I10" t="n">
+        <v>10399.57997</v>
+      </c>
+      <c r="J10" t="n">
+        <v>26.69314</v>
+      </c>
+      <c r="K10" t="n">
+        <v>59088.33439</v>
+      </c>
+      <c r="L10" t="n">
+        <v>10.07593</v>
+      </c>
+      <c r="M10" t="n">
+        <v>47.62122</v>
+      </c>
+      <c r="N10" t="n">
+        <v>6.8756</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1811.042</v>
+      </c>
+      <c r="P10" t="n">
+        <v>1301.66435</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>2083.51644</v>
+      </c>
+      <c r="R10" t="n">
+        <v>741.11361</v>
       </c>
     </row>
   </sheetData>
